--- a/1. Data Formats and Pandas/1. Json, csv, xlsx and yaml/demo.xlsx
+++ b/1. Data Formats and Pandas/1. Json, csv, xlsx and yaml/demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanying/Desktop/AiCore_Teaching/Data-Engineering-Private/Module 2. Data Formats and Pandas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ivanying/Desktop/AiCore_Teaching/Data-Engineering-Private/1. Data Formats and Pandas/1. Json, csv, xlsx and yaml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCBA5CA-E4F7-D844-A302-51A78047553F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CEAC6F-9F9D-9F4B-A745-1C816290A308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="25320" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -80,61 +80,100 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>Hristo</t>
-  </si>
-  <si>
-    <t>Petkov</t>
-  </si>
-  <si>
-    <t>Imran</t>
-  </si>
-  <si>
-    <t>Raza</t>
-  </si>
-  <si>
-    <t>Ishtyaq</t>
-  </si>
-  <si>
-    <t>Nabi</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Ebblewhite</t>
-  </si>
-  <si>
-    <t>Maud</t>
-  </si>
-  <si>
-    <t>Darby</t>
-  </si>
-  <si>
-    <t>Nishaal</t>
-  </si>
-  <si>
-    <t>Ajmera</t>
-  </si>
-  <si>
-    <t>Simeon</t>
-  </si>
-  <si>
-    <t>Bamgbaye</t>
-  </si>
-  <si>
-    <t>Tafadzwa</t>
-  </si>
-  <si>
-    <t>Zama</t>
-  </si>
-  <si>
-    <t>Tamim</t>
-  </si>
-  <si>
-    <t>Ehsan</t>
-  </si>
-  <si>
-    <t>Victor</t>
+    <t>I03</t>
+  </si>
+  <si>
+    <t>Blair</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>I04</t>
+  </si>
+  <si>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Eldiwany</t>
+  </si>
+  <si>
+    <t>Ahsan</t>
+  </si>
+  <si>
+    <t>Muzafar</t>
+  </si>
+  <si>
+    <t>Arman</t>
+  </si>
+  <si>
+    <t>Hameed</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Bouchard</t>
+  </si>
+  <si>
+    <t>Darrel</t>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Dhaval</t>
+  </si>
+  <si>
+    <t>Kakadiya</t>
+  </si>
+  <si>
+    <t>Euan</t>
+  </si>
+  <si>
+    <t>Wrigglesworth</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Overend</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>Luqman</t>
+  </si>
+  <si>
+    <t>Awoniyi</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Baran</t>
+  </si>
+  <si>
+    <t>Quratulaen</t>
+  </si>
+  <si>
+    <t>Ikram</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>Aiken</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
   </si>
 </sst>
 </file>
@@ -517,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,6 +600,28 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -569,10 +630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5C4EE-D8AC-9E41-864F-1AE508F142C5}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -593,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -604,10 +665,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -615,10 +676,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -626,10 +687,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -637,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -648,10 +709,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -659,10 +720,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -670,10 +731,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -681,10 +742,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -692,10 +753,32 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
